--- a/Assets/Data/Table/Convert/Event_Event.xlsx
+++ b/Assets/Data/Table/Convert/Event_Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD02B83-3535-4B53-AB94-2D92118AC6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB8051-68A3-4C7E-B584-BF9121000207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="11" r:id="rId1"/>
@@ -123,21 +123,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Unit.
+    <t>Use_Skill_DiveRelease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Unit.
 OpType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use_Skill_DiveRelease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,23 +609,23 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="7"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -652,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -661,11 +660,11 @@
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>12</v>
@@ -674,7 +673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -736,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -798,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -860,18 +859,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>

--- a/Assets/Data/Table/Convert/Event_Event.xlsx
+++ b/Assets/Data/Table/Convert/Event_Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB8051-68A3-4C7E-B584-BF9121000207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883D06A-BA8B-4A26-BA1A-C54CF70D39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,100 @@
   <si>
     <t>Em.Unit.
 OpType</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_5</t>
   </si>
 </sst>
 </file>
@@ -191,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +325,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBDBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -320,6 +450,42 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -328,6 +494,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFBDBD"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFB48500"/>
       <color rgb="FFD2A000"/>
     </mruColors>
@@ -606,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBAE59D-E7C3-4E6B-9172-A62B5209CFF4}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -658,11 +826,15 @@
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
@@ -673,17 +845,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="str" cm="1">
+    <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="str">
+        <f>B3</f>
+        <v>Acquire_HealItem_LevelUpItem_1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18" t="str" cm="1">
         <f t="array" ref="D3">IFERROR(
 _xlfn.SWITCH(C3,
 "==","Eqaul",
@@ -704,10 +877,10 @@
 "")</f>
         <v>AND</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="str" cm="1">
+      <c r="E3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18" t="str" cm="1">
         <f t="array" ref="F3">IFERROR(
 _xlfn.SWITCH(E3,
 "==","Equall",
@@ -728,24 +901,25 @@
 "")</f>
         <v>GreaterEqual</v>
       </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="str" cm="1">
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="str">
+        <f t="shared" ref="A4:A7" si="0">B4</f>
+        <v>Acquire_HealItem_LevelUpItem_2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="18" t="str" cm="1">
         <f t="array" ref="D4">IFERROR(
 _xlfn.SWITCH(C4,
 "==","Eqaul",
@@ -766,10 +940,10 @@
 "")</f>
         <v>AND</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="str" cm="1">
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="18" t="str" cm="1">
         <f t="array" ref="F4">IFERROR(
 _xlfn.SWITCH(E4,
 "==","Equall",
@@ -790,24 +964,25 @@
 "")</f>
         <v>GreaterEqual</v>
       </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="str" cm="1">
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Acquire_HealItem_LevelUpItem_3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18" t="str" cm="1">
         <f t="array" ref="D5">IFERROR(
 _xlfn.SWITCH(C5,
 "==","Eqaul",
@@ -828,10 +1003,10 @@
 "")</f>
         <v>AND</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="str" cm="1">
+      <c r="E5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="str" cm="1">
         <f t="array" ref="F5">IFERROR(
 _xlfn.SWITCH(E5,
 "==","Equall",
@@ -852,30 +1027,49 @@
 "")</f>
         <v>GreaterEqual</v>
       </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="str" cm="1">
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Acquire_HealItem_LevelUpItem_4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="18" t="str" cm="1">
+        <f t="array" ref="D6">IFERROR(
+_xlfn.SWITCH(C6,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="18" t="str" cm="1">
         <f t="array" ref="F6">IFERROR(
 _xlfn.SWITCH(E6,
 "==","Equall",
@@ -896,10 +1090,1882 @@
 "")</f>
         <v>GreaterEqual</v>
       </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="b">
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Acquire_HealItem_LevelUpItem_5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="18" t="str" cm="1">
+        <f t="array" ref="D7">IFERROR(
+_xlfn.SWITCH(C7,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18" t="str" cm="1">
+        <f t="array" ref="F7">IFERROR(
+_xlfn.SWITCH(E7,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="str">
+        <f t="shared" ref="A8:A36" si="1">B8</f>
+        <v>Acquire_MaxHp_LevelUpItem_1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="22" t="str" cm="1">
+        <f t="array" ref="D8">IFERROR(
+_xlfn.SWITCH(C8,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="22" t="str" cm="1">
+        <f t="array" ref="F8">IFERROR(
+_xlfn.SWITCH(E8,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxHp_LevelUpItem_2</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="22" t="str" cm="1">
+        <f t="array" ref="D9">IFERROR(
+_xlfn.SWITCH(C9,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="22" t="str" cm="1">
+        <f t="array" ref="F9">IFERROR(
+_xlfn.SWITCH(E9,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxHp_LevelUpItem_3</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="22" t="str" cm="1">
+        <f t="array" ref="D10">IFERROR(
+_xlfn.SWITCH(C10,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="22" t="str" cm="1">
+        <f t="array" ref="F10">IFERROR(
+_xlfn.SWITCH(E10,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxHp_LevelUpItem_4</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="22" t="str" cm="1">
+        <f t="array" ref="D11">IFERROR(
+_xlfn.SWITCH(C11,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="22" t="str" cm="1">
+        <f t="array" ref="F11">IFERROR(
+_xlfn.SWITCH(E11,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1</v>
+      </c>
+      <c r="H11" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxHp_LevelUpItem_5</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="22" t="str" cm="1">
+        <f t="array" ref="D12">IFERROR(
+_xlfn.SWITCH(C12,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="22" t="str" cm="1">
+        <f t="array" ref="F12">IFERROR(
+_xlfn.SWITCH(E12,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxMp_LevelUpItem_1</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="26" t="str" cm="1">
+        <f t="array" ref="D13">IFERROR(
+_xlfn.SWITCH(C13,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="26" t="str" cm="1">
+        <f t="array" ref="F13">IFERROR(
+_xlfn.SWITCH(E13,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G13" s="28">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxMp_LevelUpItem_2</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26" t="str" cm="1">
+        <f t="array" ref="D14">IFERROR(
+_xlfn.SWITCH(C14,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="26" t="str" cm="1">
+        <f t="array" ref="F14">IFERROR(
+_xlfn.SWITCH(E14,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxMp_LevelUpItem_3</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="26" t="str" cm="1">
+        <f t="array" ref="D15">IFERROR(
+_xlfn.SWITCH(C15,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="26" t="str" cm="1">
+        <f t="array" ref="F15">IFERROR(
+_xlfn.SWITCH(E15,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxMp_LevelUpItem_4</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="26" t="str" cm="1">
+        <f t="array" ref="D16">IFERROR(
+_xlfn.SWITCH(C16,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="26" t="str" cm="1">
+        <f t="array" ref="F16">IFERROR(
+_xlfn.SWITCH(E16,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G16" s="28">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxMp_LevelUpItem_5</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="26" t="str" cm="1">
+        <f t="array" ref="D17">IFERROR(
+_xlfn.SWITCH(C17,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="26" t="str" cm="1">
+        <f t="array" ref="F17">IFERROR(
+_xlfn.SWITCH(E17,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G17" s="28">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxTp_LevelUpItem_1</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="30" t="str" cm="1">
+        <f t="array" ref="D18">IFERROR(
+_xlfn.SWITCH(C18,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="30" t="str" cm="1">
+        <f t="array" ref="F18">IFERROR(
+_xlfn.SWITCH(E18,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxTp_LevelUpItem_2</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="30" t="str" cm="1">
+        <f t="array" ref="D19">IFERROR(
+_xlfn.SWITCH(C19,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="30" t="str" cm="1">
+        <f t="array" ref="F19">IFERROR(
+_xlfn.SWITCH(E19,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G19" s="32">
+        <v>1</v>
+      </c>
+      <c r="H19" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxTp_LevelUpItem_3</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="30" t="str" cm="1">
+        <f t="array" ref="D20">IFERROR(
+_xlfn.SWITCH(C20,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="30" t="str" cm="1">
+        <f t="array" ref="F20">IFERROR(
+_xlfn.SWITCH(E20,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxTp_LevelUpItem_4</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="30" t="str" cm="1">
+        <f t="array" ref="D21">IFERROR(
+_xlfn.SWITCH(C21,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="30" t="str" cm="1">
+        <f t="array" ref="F21">IFERROR(
+_xlfn.SWITCH(E21,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxTp_LevelUpItem_5</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="30" t="str" cm="1">
+        <f t="array" ref="D22">IFERROR(
+_xlfn.SWITCH(C22,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="30" t="str" cm="1">
+        <f t="array" ref="F22">IFERROR(
+_xlfn.SWITCH(E22,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxEquipSlot_LevelUpItem_1</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="34" t="str" cm="1">
+        <f t="array" ref="D23">IFERROR(
+_xlfn.SWITCH(C23,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="34" t="str" cm="1">
+        <f t="array" ref="F23">IFERROR(
+_xlfn.SWITCH(E23,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G23" s="36">
+        <v>1</v>
+      </c>
+      <c r="H23" s="34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxEquipSlot_LevelUpItem_2</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="34" t="str" cm="1">
+        <f t="array" ref="D24">IFERROR(
+_xlfn.SWITCH(C24,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="34" t="str" cm="1">
+        <f t="array" ref="F24">IFERROR(
+_xlfn.SWITCH(E24,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G24" s="36">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxEquipSlot_LevelUpItem_3</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="34" t="str" cm="1">
+        <f t="array" ref="D25">IFERROR(
+_xlfn.SWITCH(C25,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="34" t="str" cm="1">
+        <f t="array" ref="F25">IFERROR(
+_xlfn.SWITCH(E25,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1</v>
+      </c>
+      <c r="H25" s="34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxEquipSlot_LevelUpItem_4</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="34" t="str" cm="1">
+        <f t="array" ref="D26">IFERROR(
+_xlfn.SWITCH(C26,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="34" t="str" cm="1">
+        <f t="array" ref="F26">IFERROR(
+_xlfn.SWITCH(E26,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_MaxEquipSlot_LevelUpItem_5</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="34" t="str" cm="1">
+        <f t="array" ref="D27">IFERROR(
+_xlfn.SWITCH(C27,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="34" t="str" cm="1">
+        <f t="array" ref="F27">IFERROR(
+_xlfn.SWITCH(E27,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G27" s="36">
+        <v>1</v>
+      </c>
+      <c r="H27" s="34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_AtkDamage_LevelUpItem_1</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="38" t="str" cm="1">
+        <f t="array" ref="D28">IFERROR(
+_xlfn.SWITCH(C28,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="38" t="str" cm="1">
+        <f t="array" ref="F28">IFERROR(
+_xlfn.SWITCH(E28,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G28" s="40">
+        <v>1</v>
+      </c>
+      <c r="H28" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_AtkDamage_LevelUpItem_2</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="38" t="str" cm="1">
+        <f t="array" ref="D29">IFERROR(
+_xlfn.SWITCH(C29,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="38" t="str" cm="1">
+        <f t="array" ref="F29">IFERROR(
+_xlfn.SWITCH(E29,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G29" s="40">
+        <v>1</v>
+      </c>
+      <c r="H29" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_AtkDamage_LevelUpItem_3</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="38" t="str" cm="1">
+        <f t="array" ref="D30">IFERROR(
+_xlfn.SWITCH(C30,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="38" t="str" cm="1">
+        <f t="array" ref="F30">IFERROR(
+_xlfn.SWITCH(E30,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G30" s="40">
+        <v>1</v>
+      </c>
+      <c r="H30" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_AtkDamage_LevelUpItem_4</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="38" t="str" cm="1">
+        <f t="array" ref="D31">IFERROR(
+_xlfn.SWITCH(C31,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="38" t="str" cm="1">
+        <f t="array" ref="F31">IFERROR(
+_xlfn.SWITCH(E31,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G31" s="40">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Acquire_AtkDamage_LevelUpItem_5</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="38" t="str" cm="1">
+        <f t="array" ref="D32">IFERROR(
+_xlfn.SWITCH(C32,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="38" t="str" cm="1">
+        <f t="array" ref="F32">IFERROR(
+_xlfn.SWITCH(E32,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>UnEquipStone_AtkPowerUp</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7" t="str" cm="1">
+        <f t="array" ref="D33">IFERROR(
+_xlfn.SWITCH(C33,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="7" t="str" cm="1">
+        <f t="array" ref="F33">IFERROR(
+_xlfn.SWITCH(E33,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>UnEquipStone_MaxHpUp</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="str" cm="1">
+        <f t="array" ref="D34">IFERROR(
+_xlfn.SWITCH(C34,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="str" cm="1">
+        <f t="array" ref="F34">IFERROR(
+_xlfn.SWITCH(E34,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>UnEquipStone_MaxMpUp</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7" t="str" cm="1">
+        <f t="array" ref="D35">IFERROR(
+_xlfn.SWITCH(C35,
+"==","Eqaul",
+"&gt;=","GraterEqaul",
+"&lt;=","LessEqual",
+"&gt;","GraterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>AND</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7" t="str" cm="1">
+        <f t="array" ref="F35">IFERROR(
+_xlfn.SWITCH(E35,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Use_Skill_DiveRelease</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7" t="str" cm="1">
+        <f t="array" ref="F36">IFERROR(
+_xlfn.SWITCH(E36,
+"==","Equall",
+"&gt;=","GreaterEqual",
+"&lt;=","LessEqual",
+"&gt;","GreaterThan",
+"&lt;","LessThan",
+"!=","NotEqual",
+"∈","Include",
+"!∈","Exclude",
+"&amp;&amp;","AND",
+"||","OR",
+"!","NOT",
+TRUE,"TRUE",
+FALSE,"FALSE",
+"None","None"
+),
+"")</f>
+        <v>GreaterEqual</v>
+      </c>
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="b">
         <v>1</v>
       </c>
     </row>
